--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,18 +29,12 @@
     <t>Baked Hum Bow</t>
   </si>
   <si>
-    <t>bakedhumbao.jpg</t>
-  </si>
-  <si>
     <t>BBQ pork wrapped in sweet dough and baked.</t>
   </si>
   <si>
     <t>Barbecue Pork Puff</t>
   </si>
   <si>
-    <t>bbqporkpuff.jpg</t>
-  </si>
-  <si>
     <t>BBQ pork wrapped in puff pastry.</t>
   </si>
   <si>
@@ -53,21 +47,12 @@
     <t>Beef Tripe</t>
   </si>
   <si>
-    <t>beeftripe.jpg</t>
-  </si>
-  <si>
     <t>Springy tripe with chopped garlic and black bean paste.</t>
   </si>
   <si>
     <t>牛肚</t>
   </si>
   <si>
-    <t>ChickenＦｅｅｔ</t>
-  </si>
-  <si>
-    <t>chickenfeet.jpg</t>
-  </si>
-  <si>
     <t>Chewy chicken feet that are fried, marinated and steamed.</t>
   </si>
   <si>
@@ -77,9 +62,6 @@
     <t>Egg Tart</t>
   </si>
   <si>
-    <t>eggtart.jpg</t>
-  </si>
-  <si>
     <t>A flaky pastry crust filled with creamy egg custard.</t>
   </si>
   <si>
@@ -89,9 +71,6 @@
     <t>Deep Fried Dumpling</t>
   </si>
   <si>
-    <t>football.jpg</t>
-  </si>
-  <si>
     <t>Savory pork and shrimp in a sweet glutinous rice shell.</t>
   </si>
   <si>
@@ -101,9 +80,6 @@
     <t>Beehive Taro</t>
   </si>
   <si>
-    <t>friedtaro.jpg</t>
-  </si>
-  <si>
     <t>Crunchy mashed taro filled with ground pork and shrimp.</t>
   </si>
   <si>
@@ -113,9 +89,6 @@
     <t>Garlic Peavine</t>
   </si>
   <si>
-    <t>peavine.jpg</t>
-  </si>
-  <si>
     <t>Tender pea greens steamed in chicken stock.</t>
   </si>
   <si>
@@ -125,9 +98,6 @@
     <t>Sesame Ball</t>
   </si>
   <si>
-    <t>sesameball.jpg</t>
-  </si>
-  <si>
     <t>Fried dough covered with sesame seeds and filled with a sweet red bean paste.</t>
   </si>
   <si>
@@ -137,9 +107,6 @@
     <t>Shanghai Dumpling</t>
   </si>
   <si>
-    <t>shanghaidumpling.jpg</t>
-  </si>
-  <si>
     <t>Dumplings filled with pork, crab meat and broth.</t>
   </si>
   <si>
@@ -149,9 +116,6 @@
     <t>Shrimp Ball</t>
   </si>
   <si>
-    <t>shrimpball.jpg</t>
-  </si>
-  <si>
     <t>Whole shrimp in a translucent wrapper.</t>
   </si>
   <si>
@@ -161,9 +125,6 @@
     <t>Shrimp Rice Noodle Roll</t>
   </si>
   <si>
-    <t>shrimpricenoodleroll.jpg</t>
-  </si>
-  <si>
     <t>Shrimp wrapped in a rice noodle sheet with soy sauce.</t>
   </si>
   <si>
@@ -173,9 +134,6 @@
     <t>Shu My</t>
   </si>
   <si>
-    <t>shumy.jpg</t>
-  </si>
-  <si>
     <t>Open-topped dumplings filled with ground pork and shrimp.</t>
   </si>
   <si>
@@ -185,27 +143,15 @@
     <t>Spareribs</t>
   </si>
   <si>
-    <t>spareribs.jpg</t>
-  </si>
-  <si>
     <t>Steamed Hum Bow</t>
   </si>
   <si>
-    <t>steamedhumbao.jpg</t>
-  </si>
-  <si>
-    <t>stickyrice.jpg</t>
-  </si>
-  <si>
     <t>Sticky Rice Package</t>
   </si>
   <si>
     <t>Turnip Pie</t>
   </si>
   <si>
-    <t>turnippie.jpg</t>
-  </si>
-  <si>
     <t>蒸排骨</t>
   </si>
   <si>
@@ -233,13 +179,67 @@
     <t>Stuffed Eggplant</t>
   </si>
   <si>
-    <t>stuffedeggplant.jpg</t>
-  </si>
-  <si>
     <t>Chinese eggplant filled with ground shrimp in XO sauce.</t>
   </si>
   <si>
     <t>煎釀茄子</t>
+  </si>
+  <si>
+    <t>Chicken Feet</t>
+  </si>
+  <si>
+    <t>bakedhumbao</t>
+  </si>
+  <si>
+    <t>bbqporkpuff</t>
+  </si>
+  <si>
+    <t>beeftripe</t>
+  </si>
+  <si>
+    <t>chickenfeet</t>
+  </si>
+  <si>
+    <t>eggtart</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>friedtaro</t>
+  </si>
+  <si>
+    <t>peavine</t>
+  </si>
+  <si>
+    <t>sesameball</t>
+  </si>
+  <si>
+    <t>shanghaidumpling</t>
+  </si>
+  <si>
+    <t>shrimpball</t>
+  </si>
+  <si>
+    <t>shrimpricenoodleroll</t>
+  </si>
+  <si>
+    <t>shumy</t>
+  </si>
+  <si>
+    <t>spareribs</t>
+  </si>
+  <si>
+    <t>steamedhumbao</t>
+  </si>
+  <si>
+    <t>stickyrice</t>
+  </si>
+  <si>
+    <t>turnippie</t>
+  </si>
+  <si>
+    <t>stuffedeggplant</t>
   </si>
 </sst>
 </file>
@@ -282,9 +282,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,318 +604,323 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>2.5</v>
+      <c r="A1" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C3" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
         <v>2.5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
         <v>3.5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
         <v>2.75</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3">
         <v>2.5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3">
         <v>3.5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
         <v>2.5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3">
         <v>3.5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
